--- a/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="czarny" sheetId="1" r:id="rId1"/>
-    <sheet name="niebieski" sheetId="2" r:id="rId4"/>
-    <sheet name="rozowy" sheetId="3" r:id="rId5"/>
-    <sheet name="zielony" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 czarny  0-1-0-850 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 niebieski  0-1-0-850" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 rozowy  0-1-0-850 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 zielony  0-1-0-850 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki czarny</a:t>
+              <a:t>Izoterma adsorpcji probki czarny z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>czarny!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 czarny  0-1-0-850 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>czarny!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 czarny  0-1-0-850 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="850"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki niebieski</a:t>
+              <a:t>Izoterma adsorpcji probki niebieski z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>niebieski!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 niebieski  0-1-0-850'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>niebieski!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 niebieski  0-1-0-850'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="850"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki rozowy</a:t>
+              <a:t>Izoterma adsorpcji probki rozowy z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>rozowy!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 rozowy  0-1-0-850 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>rozowy!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 rozowy  0-1-0-850 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="850"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki zielony</a:t>
+              <a:t>Izoterma adsorpcji probki zielony z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>zielony!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 zielony  0-1-0-850 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>zielony!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 zielony  0-1-0-850 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="850"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
@@ -5,28 +5,24 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2_1 czarny  0-1-0-850 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2_1 niebieski  0-1-0-850" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2_1 rozowy  0-1-0-850 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_1 zielony  0-1-0-850 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 niebieski  0-1-0-850" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 rozowy  0-1-0-850 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 zielony  0-1-0-850 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>czarny</t>
+    <t>niebieski</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>niebieski</t>
   </si>
   <si>
     <t>rozowy</t>
@@ -77,320 +73,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki czarny z wykresu 'Figure 2_1' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2_1 czarny  0-1-0-850 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2_1 czarny  0-1-0-850 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="850"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -704,7 +386,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1018,7 +700,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1452,46 +1134,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2535,527 +2177,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3664,41 +2785,6 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4013,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,389 +3120,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9862</v>
       </c>
       <c r="B3" s="0">
-        <v>283.3841</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9404</v>
       </c>
       <c r="B4" s="0">
-        <v>299.3718</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.9277</v>
       </c>
       <c r="B5" s="0">
-        <v>311.6689</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.8904</v>
       </c>
       <c r="B6" s="0">
-        <v>323.2742</v>
+        <v>370.3083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.8745</v>
       </c>
       <c r="B7" s="0">
-        <v>330.5205</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.8383</v>
       </c>
       <c r="B8" s="0">
-        <v>334.4663</v>
+        <v>370.3083</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.8266</v>
       </c>
       <c r="B9" s="0">
-        <v>337.1395</v>
+        <v>370.3083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.7894</v>
       </c>
       <c r="B10" s="0">
-        <v>339.3594</v>
+        <v>369.1689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.7383</v>
       </c>
       <c r="B11" s="0">
-        <v>341.553</v>
+        <v>368.0295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.6872</v>
       </c>
       <c r="B12" s="0">
-        <v>343.6556</v>
+        <v>368.0295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.6351</v>
       </c>
       <c r="B13" s="0">
-        <v>345.4861</v>
+        <v>369.1689</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.5851</v>
       </c>
       <c r="B14" s="0">
-        <v>346.9366</v>
+        <v>366.8901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.533</v>
       </c>
       <c r="B15" s="0">
-        <v>348.0177</v>
+        <v>369.1689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.4819</v>
       </c>
       <c r="B16" s="0">
-        <v>348.9434</v>
+        <v>366.8901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.4309</v>
       </c>
       <c r="B17" s="0">
-        <v>349.8771</v>
+        <v>364.6113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.3798</v>
       </c>
       <c r="B18" s="0">
-        <v>350.6496</v>
+        <v>364.6113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.3287</v>
       </c>
       <c r="B19" s="0">
-        <v>351.1269</v>
+        <v>364.6113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.2809</v>
       </c>
       <c r="B20" s="0">
-        <v>351.5623</v>
+        <v>363.4718</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.2394</v>
       </c>
       <c r="B21" s="0">
-        <v>352.2251</v>
+        <v>361.193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.2255</v>
       </c>
       <c r="B22" s="0">
-        <v>353.0906</v>
+        <v>361.193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.1851</v>
       </c>
       <c r="B23" s="0">
-        <v>354.0525</v>
+        <v>357.7748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.1745</v>
       </c>
       <c r="B24" s="0">
-        <v>355.0751</v>
+        <v>357.7748</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.1372</v>
       </c>
       <c r="B25" s="0">
-        <v>356.0891</v>
+        <v>354.3566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.1245</v>
       </c>
       <c r="B26" s="0">
-        <v>356.7869</v>
+        <v>355.496</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.0702</v>
       </c>
       <c r="B27" s="0">
-        <v>356.9744</v>
+        <v>346.3807</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.0191</v>
       </c>
       <c r="B28" s="0">
-        <v>356.9608</v>
+        <v>322.4531</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.0106</v>
       </c>
       <c r="B29" s="0">
-        <v>357.0835</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B30" s="0">
-        <v>357.4117</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>357.9137</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>358.5846</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>359.3801</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>360.1306</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>360.6626</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>360.7796</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>360.4776</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>360.2232</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>360.4212</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>360.7793</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>360.9277</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>360.9358</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>360.9932</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>361.2725</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>361.6929</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>361.9244</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>361.7592</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>362.5313</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>364.9309</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>368.5347</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>306.5013</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4425,7 +3343,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4446,365 +3364,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0099</v>
+        <v>0.9915</v>
       </c>
       <c r="B3" s="0">
-        <v>306.9441</v>
+        <v>802.1448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0273</v>
+        <v>0.9468</v>
       </c>
       <c r="B4" s="0">
-        <v>325.7003</v>
+        <v>795.3083</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0496</v>
+        <v>0.8968</v>
       </c>
       <c r="B5" s="0">
-        <v>336.1619</v>
+        <v>794.1689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0717</v>
+        <v>0.884</v>
       </c>
       <c r="B6" s="0">
-        <v>344.4367</v>
+        <v>793.0295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0941</v>
+        <v>0.8447</v>
       </c>
       <c r="B7" s="0">
-        <v>349.3622</v>
+        <v>791.8901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.117</v>
+        <v>0.833</v>
       </c>
       <c r="B8" s="0">
-        <v>352.3831</v>
+        <v>791.8901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1386</v>
+        <v>0.7957</v>
       </c>
       <c r="B9" s="0">
-        <v>352.9249</v>
+        <v>793.0295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1609</v>
+        <v>0.7447</v>
       </c>
       <c r="B10" s="0">
-        <v>354.8459</v>
+        <v>790.7507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1823</v>
+        <v>0.6926</v>
       </c>
       <c r="B11" s="0">
-        <v>355.8507</v>
+        <v>790.7507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2054</v>
+        <v>0.6394</v>
       </c>
       <c r="B12" s="0">
-        <v>356.9474</v>
+        <v>788.4718</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2282</v>
+        <v>0.5883</v>
       </c>
       <c r="B13" s="0">
-        <v>358.601</v>
+        <v>787.3324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2491</v>
+        <v>0.5372</v>
       </c>
       <c r="B14" s="0">
-        <v>359.246</v>
+        <v>786.193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2733</v>
+        <v>0.4851</v>
       </c>
       <c r="B15" s="0">
-        <v>361.3576</v>
+        <v>785.0536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2944</v>
+        <v>0.4319</v>
       </c>
       <c r="B16" s="0">
-        <v>361.249</v>
+        <v>780.496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3167</v>
+        <v>0.3819</v>
       </c>
       <c r="B17" s="0">
-        <v>362.7266</v>
+        <v>778.2172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3375</v>
+        <v>0.3585</v>
       </c>
       <c r="B18" s="0">
-        <v>362.08</v>
+        <v>775.9383</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3612</v>
+        <v>0.334</v>
       </c>
       <c r="B19" s="0">
-        <v>364.1583</v>
+        <v>774.7989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3826</v>
+        <v>0.3181</v>
       </c>
       <c r="B20" s="0">
-        <v>363.761</v>
+        <v>773.6595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4057</v>
+        <v>0.2809</v>
       </c>
       <c r="B21" s="0">
-        <v>366.1088</v>
+        <v>769.1019</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4284</v>
+        <v>0.2574</v>
       </c>
       <c r="B22" s="0">
-        <v>365.6086</v>
+        <v>766.8231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4502</v>
+        <v>0.2298</v>
       </c>
       <c r="B23" s="0">
-        <v>365.8132</v>
+        <v>759.9866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4742</v>
+        <v>0.1904</v>
       </c>
       <c r="B24" s="0">
-        <v>365.3735</v>
+        <v>748.5925</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4939</v>
+        <v>0.1734</v>
       </c>
       <c r="B25" s="0">
-        <v>366.1991</v>
+        <v>741.756</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.517</v>
+        <v>0.1255</v>
       </c>
       <c r="B26" s="0">
-        <v>366.6998</v>
+        <v>712.1314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5379</v>
+        <v>0.0723</v>
       </c>
       <c r="B27" s="0">
-        <v>366.0365</v>
+        <v>646.0456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5615</v>
+        <v>0.0191</v>
       </c>
       <c r="B28" s="0">
-        <v>367.6521</v>
+        <v>522.9893</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.584</v>
+        <v>0.0117</v>
       </c>
       <c r="B29" s="0">
-        <v>366.1088</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.606</v>
-      </c>
-      <c r="B30" s="0">
-        <v>367.9804</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.63</v>
-      </c>
-      <c r="B31" s="0">
-        <v>367.6723</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6505</v>
-      </c>
-      <c r="B32" s="0">
-        <v>368.867</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6728</v>
-      </c>
-      <c r="B33" s="0">
-        <v>368.473</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6932</v>
-      </c>
-      <c r="B34" s="0">
-        <v>367.6981</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7173</v>
-      </c>
-      <c r="B35" s="0">
-        <v>369.4581</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7396</v>
-      </c>
-      <c r="B36" s="0">
-        <v>371.3298</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7618</v>
-      </c>
-      <c r="B37" s="0">
-        <v>369.9178</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7841</v>
-      </c>
-      <c r="B38" s="0">
-        <v>370.9029</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8064</v>
-      </c>
-      <c r="B39" s="0">
-        <v>368.67</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8283</v>
-      </c>
-      <c r="B40" s="0">
-        <v>371.1656</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8509</v>
-      </c>
-      <c r="B41" s="0">
-        <v>369.7208</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8736</v>
-      </c>
-      <c r="B42" s="0">
-        <v>370.1931</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8954</v>
-      </c>
-      <c r="B43" s="0">
-        <v>370.5089</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9185</v>
-      </c>
-      <c r="B44" s="0">
-        <v>370.2024</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9391</v>
-      </c>
-      <c r="B45" s="0">
-        <v>370.5265</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9622</v>
-      </c>
-      <c r="B46" s="0">
-        <v>371.2313</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9846</v>
-      </c>
-      <c r="B47" s="0">
-        <v>371.888</v>
-      </c>
-    </row>
-    <row r="48"/>
+        <v>478.5523</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4813,7 +3587,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4834,561 +3608,229 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0109</v>
+        <v>0.9883</v>
       </c>
       <c r="B3" s="0">
-        <v>479.887</v>
+        <v>675.6702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0199</v>
+        <v>0.9447</v>
       </c>
       <c r="B4" s="0">
-        <v>522.8925</v>
+        <v>674.5308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0415</v>
+        <v>0.8936</v>
       </c>
       <c r="B5" s="0">
-        <v>570.1356</v>
+        <v>673.3914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0557</v>
+        <v>0.8809</v>
       </c>
       <c r="B6" s="0">
-        <v>601.4053</v>
+        <v>673.3914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0688</v>
+        <v>0.8415</v>
       </c>
       <c r="B7" s="0">
-        <v>637.956</v>
+        <v>673.3914</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0941</v>
+        <v>0.8287</v>
       </c>
       <c r="B8" s="0">
-        <v>670.3055</v>
+        <v>673.3914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1214</v>
+        <v>0.7947</v>
       </c>
       <c r="B9" s="0">
-        <v>705.7117</v>
+        <v>672.252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1538</v>
+        <v>0.7426</v>
       </c>
       <c r="B10" s="0">
-        <v>729.6703</v>
+        <v>671.1126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1862</v>
+        <v>0.6915</v>
       </c>
       <c r="B11" s="0">
-        <v>746.9273</v>
+        <v>671.1126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2185</v>
+        <v>0.6394</v>
       </c>
       <c r="B12" s="0">
-        <v>757.831</v>
+        <v>669.9732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2509</v>
+        <v>0.5872</v>
       </c>
       <c r="B13" s="0">
-        <v>764.5358</v>
+        <v>667.6944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2833</v>
+        <v>0.5372</v>
       </c>
       <c r="B14" s="0">
-        <v>769.1411</v>
+        <v>666.555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3157</v>
+        <v>0.483</v>
       </c>
       <c r="B15" s="0">
-        <v>772.5274</v>
+        <v>664.2761</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.348</v>
+        <v>0.4319</v>
       </c>
       <c r="B16" s="0">
-        <v>774.83</v>
+        <v>663.1367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3804</v>
+        <v>0.383</v>
       </c>
       <c r="B17" s="0">
-        <v>776.6586</v>
+        <v>660.8579</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4128</v>
+        <v>0.3415</v>
       </c>
       <c r="B18" s="0">
-        <v>778.7581</v>
+        <v>658.5791</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4452</v>
+        <v>0.3287</v>
       </c>
       <c r="B19" s="0">
-        <v>780.6544</v>
+        <v>659.7185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4775</v>
+        <v>0.3149</v>
       </c>
       <c r="B20" s="0">
-        <v>781.9412</v>
+        <v>657.4397</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5099</v>
+        <v>0.283</v>
       </c>
       <c r="B21" s="0">
-        <v>783.4311</v>
+        <v>654.0214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5423</v>
+        <v>0.2468</v>
       </c>
       <c r="B22" s="0">
-        <v>785.0565</v>
+        <v>650.6032</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5747</v>
+        <v>0.2287</v>
       </c>
       <c r="B23" s="0">
-        <v>786.1401</v>
+        <v>651.7426</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.607</v>
+        <v>0.2064</v>
       </c>
       <c r="B24" s="0">
-        <v>786.5465</v>
+        <v>646.0456</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6394</v>
+        <v>0.1745</v>
       </c>
       <c r="B25" s="0">
-        <v>787.901</v>
+        <v>641.4879</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6718</v>
+        <v>0.1213</v>
       </c>
       <c r="B26" s="0">
-        <v>788.7814</v>
+        <v>626.6756</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7042</v>
+        <v>0.0777</v>
       </c>
       <c r="B27" s="0">
-        <v>789.7973</v>
+        <v>599.3298</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7365</v>
+        <v>0.0681</v>
       </c>
       <c r="B28" s="0">
-        <v>790.2036</v>
+        <v>591.3539</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7689</v>
+        <v>0.0191</v>
       </c>
       <c r="B29" s="0">
-        <v>790.4068</v>
+        <v>502.4799</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8013</v>
+        <v>0.0106</v>
       </c>
       <c r="B30" s="0">
-        <v>791.2195</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.8337</v>
-      </c>
-      <c r="B31" s="0">
-        <v>792.1677</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.866</v>
-      </c>
-      <c r="B32" s="0">
-        <v>792.3031</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8984</v>
-      </c>
-      <c r="B33" s="0">
-        <v>793.1835</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9308</v>
-      </c>
-      <c r="B34" s="0">
-        <v>793.8608</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9632</v>
-      </c>
-      <c r="B35" s="0">
-        <v>797.3148</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9885</v>
-      </c>
-      <c r="B36" s="0">
-        <v>803.1617</v>
-      </c>
-    </row>
-    <row r="37"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0091</v>
-      </c>
-      <c r="B3" s="0">
-        <v>457.048</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0227</v>
-      </c>
-      <c r="B4" s="0">
-        <v>506.1102</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0486</v>
-      </c>
-      <c r="B5" s="0">
-        <v>550.3212</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0708</v>
-      </c>
-      <c r="B6" s="0">
-        <v>590.9327</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1032</v>
-      </c>
-      <c r="B7" s="0">
-        <v>616.2371</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1356</v>
-      </c>
-      <c r="B8" s="0">
-        <v>629.7628</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.168</v>
-      </c>
-      <c r="B9" s="0">
-        <v>639.1804</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.2003</v>
-      </c>
-      <c r="B10" s="0">
-        <v>645.3621</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2327</v>
-      </c>
-      <c r="B11" s="0">
-        <v>649.0644</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2651</v>
-      </c>
-      <c r="B12" s="0">
-        <v>652.2881</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2975</v>
-      </c>
-      <c r="B13" s="0">
-        <v>655.25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3298</v>
-      </c>
-      <c r="B14" s="0">
-        <v>655.7692</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3622</v>
-      </c>
-      <c r="B15" s="0">
-        <v>660.0359</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3946</v>
-      </c>
-      <c r="B16" s="0">
-        <v>660.3745</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.427</v>
-      </c>
-      <c r="B17" s="0">
-        <v>661.7516</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4593</v>
-      </c>
-      <c r="B18" s="0">
-        <v>664.28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4917</v>
-      </c>
-      <c r="B19" s="0">
-        <v>663.8827</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5241</v>
-      </c>
-      <c r="B20" s="0">
-        <v>665.3862</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.5565</v>
-      </c>
-      <c r="B21" s="0">
-        <v>666.9303</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.5888</v>
-      </c>
-      <c r="B22" s="0">
-        <v>667.3502</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.6212</v>
-      </c>
-      <c r="B23" s="0">
-        <v>668.0952</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.6536</v>
-      </c>
-      <c r="B24" s="0">
-        <v>668.8944</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.686</v>
-      </c>
-      <c r="B25" s="0">
-        <v>669.8222</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.7183</v>
-      </c>
-      <c r="B26" s="0">
-        <v>671.6169</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.7507</v>
-      </c>
-      <c r="B27" s="0">
-        <v>670.127</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.7831</v>
-      </c>
-      <c r="B28" s="0">
-        <v>670.6688</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8155</v>
-      </c>
-      <c r="B29" s="0">
-        <v>672.5199</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.8478</v>
-      </c>
-      <c r="B30" s="0">
-        <v>671.4815</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.8802</v>
-      </c>
-      <c r="B31" s="0">
-        <v>671.3686</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9126</v>
-      </c>
-      <c r="B32" s="0">
-        <v>673.6487</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.945</v>
-      </c>
-      <c r="B33" s="0">
-        <v>673.2875</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9872</v>
-      </c>
-      <c r="B34" s="0">
-        <v>675.6702</v>
-      </c>
-    </row>
-    <row r="35"/>
+        <v>458.0429</v>
+      </c>
+    </row>
+    <row r="31"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
@@ -5,24 +5,40 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2_1 niebieski  0-1-0-850" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2_1 rozowy  0-1-0-850 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2_1 zielony  0-1-0-850 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 UFFA-1-600-b-black  0&amp;" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 UFFA-2-600-b-red  0&amp;1&amp;" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 UFFA-3-600-b-blue  0&amp;1" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 UFFA-4-600-b-green  0&amp;" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 niebieski  0&amp;1&amp;0&amp;850" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_1 rozowy  0&amp;1&amp;0&amp;850 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_1 zielony  0&amp;1&amp;0&amp;850 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>niebieski</t>
+    <t>UFFA-1-600-b-black</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>UFFA-2-600-b-red</t>
+  </si>
+  <si>
+    <t>UFFA-3-600-b-blue</t>
+  </si>
+  <si>
+    <t>UFFA-4-600-b-green</t>
+  </si>
+  <si>
+    <t>niebieski</t>
   </si>
   <si>
     <t>rozowy</t>
@@ -73,6 +89,1262 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-1-600-b-black z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 UFFA-1-600-b-black  0&amp;'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 UFFA-1-600-b-black  0&amp;'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-2-600-b-red z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 UFFA-2-600-b-red  0&amp;1&amp;'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 UFFA-2-600-b-red  0&amp;1&amp;'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-3-600-b-blue z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 UFFA-3-600-b-blue  0&amp;1'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 UFFA-3-600-b-blue  0&amp;1'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-4-600-b-green z wykresu 'Figure 2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2 UFFA-4-600-b-green  0&amp;'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2 UFFA-4-600-b-green  0&amp;'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -164,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 niebieski  0-1-0-850'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 niebieski  0&amp;1&amp;0&amp;850'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 niebieski  0-1-0-850'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 niebieski  0&amp;1&amp;0&amp;850'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -386,7 +1658,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -478,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 rozowy  0-1-0-850 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 rozowy  0&amp;1&amp;0&amp;850 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 rozowy  0-1-0-850 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 rozowy  0&amp;1&amp;0&amp;850 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -700,7 +1972,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -792,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 zielony  0-1-0-850 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 zielony  0&amp;1&amp;0&amp;850 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 zielony  0-1-0-850 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 zielony  0&amp;1&amp;0&amp;850 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1134,6 +2406,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2177,6 +3609,2090 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2785,6 +6301,146 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3099,7 +6755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,221 +6776,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9862</v>
+        <v>0.9886</v>
       </c>
       <c r="B3" s="0">
-        <v>371.4477</v>
+        <v>149.7907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9404</v>
+        <v>0.944</v>
       </c>
       <c r="B4" s="0">
-        <v>371.4477</v>
+        <v>140.3591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9277</v>
+        <v>0.891</v>
       </c>
       <c r="B5" s="0">
-        <v>371.4477</v>
+        <v>139.1096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8904</v>
+        <v>0.8795</v>
       </c>
       <c r="B6" s="0">
-        <v>370.3083</v>
+        <v>139.9234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8745</v>
+        <v>0.8418</v>
       </c>
       <c r="B7" s="0">
-        <v>371.4477</v>
+        <v>137.8616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8383</v>
+        <v>0.8092</v>
       </c>
       <c r="B8" s="0">
-        <v>370.3083</v>
+        <v>138.2575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8266</v>
+        <v>0.7594</v>
       </c>
       <c r="B9" s="0">
-        <v>370.3083</v>
+        <v>137.4186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7894</v>
+        <v>0.7411</v>
       </c>
       <c r="B10" s="0">
-        <v>369.1689</v>
+        <v>138.6389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7383</v>
+        <v>0.7065</v>
       </c>
       <c r="B11" s="0">
-        <v>368.0295</v>
+        <v>137.8062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6872</v>
+        <v>0.674</v>
       </c>
       <c r="B12" s="0">
-        <v>368.0295</v>
+        <v>138.2022</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6351</v>
+        <v>0.6572</v>
       </c>
       <c r="B13" s="0">
-        <v>369.1689</v>
+        <v>137.3767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5851</v>
+        <v>0.6199</v>
       </c>
       <c r="B14" s="0">
-        <v>366.8901</v>
+        <v>138.9986</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.533</v>
+        <v>0.6037</v>
       </c>
       <c r="B15" s="0">
-        <v>369.1689</v>
+        <v>137.7641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4819</v>
+        <v>0.5691</v>
       </c>
       <c r="B16" s="0">
-        <v>366.8901</v>
+        <v>139.7963</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4309</v>
+        <v>0.5533</v>
       </c>
       <c r="B17" s="0">
-        <v>364.6113</v>
+        <v>137.7435</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3798</v>
+        <v>0.5166</v>
       </c>
       <c r="B18" s="0">
-        <v>364.6113</v>
+        <v>139.3656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3287</v>
+        <v>0.5025</v>
       </c>
       <c r="B19" s="0">
-        <v>364.6113</v>
+        <v>137.3134</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2809</v>
+        <v>0.4653</v>
       </c>
       <c r="B20" s="0">
-        <v>363.4718</v>
+        <v>140.1631</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2394</v>
+        <v>0.4312</v>
       </c>
       <c r="B21" s="0">
-        <v>361.193</v>
+        <v>139.3306</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2255</v>
+        <v>0.4133</v>
       </c>
       <c r="B22" s="0">
-        <v>361.193</v>
+        <v>140.1419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1851</v>
+        <v>0.3787</v>
       </c>
       <c r="B23" s="0">
-        <v>357.7748</v>
+        <v>138.4906</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1745</v>
+        <v>0.363</v>
       </c>
       <c r="B24" s="0">
-        <v>357.7748</v>
+        <v>139.712</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1372</v>
+        <v>0.3294</v>
       </c>
       <c r="B25" s="0">
-        <v>354.3566</v>
+        <v>137.6519</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1245</v>
+        <v>0.3111</v>
       </c>
       <c r="B26" s="0">
-        <v>355.496</v>
+        <v>140.5093</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0702</v>
+        <v>0.2791</v>
       </c>
       <c r="B27" s="0">
-        <v>346.3807</v>
+        <v>138.4498</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0191</v>
+        <v>0.2282</v>
       </c>
       <c r="B28" s="0">
-        <v>322.4531</v>
+        <v>138.0197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0106</v>
+        <v>0.18</v>
       </c>
       <c r="B29" s="0">
-        <v>306.5013</v>
-      </c>
-    </row>
-    <row r="30"/>
+        <v>137.1814</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1317</v>
+      </c>
+      <c r="B30" s="0">
+        <v>135.9339</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0746</v>
+      </c>
+      <c r="B31" s="0">
+        <v>133.8641</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B32" s="0">
+        <v>129.3397</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0111</v>
+      </c>
+      <c r="B33" s="0">
+        <v>124.4247</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3364,218 +7052,218 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9915</v>
+        <v>0.9841</v>
       </c>
       <c r="B3" s="0">
-        <v>802.1448</v>
+        <v>373.6633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9468</v>
+        <v>0.9405</v>
       </c>
       <c r="B4" s="0">
-        <v>795.3083</v>
+        <v>372.827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8968</v>
+        <v>0.928</v>
       </c>
       <c r="B5" s="0">
-        <v>794.1689</v>
+        <v>372.8218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.884</v>
+        <v>0.8897</v>
       </c>
       <c r="B6" s="0">
-        <v>793.0295</v>
+        <v>372.3969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8447</v>
+        <v>0.8745</v>
       </c>
       <c r="B7" s="0">
-        <v>791.8901</v>
+        <v>372.7999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.833</v>
+        <v>0.8393</v>
       </c>
       <c r="B8" s="0">
-        <v>791.8901</v>
+        <v>371.967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7957</v>
+        <v>0.8226</v>
       </c>
       <c r="B9" s="0">
-        <v>793.0295</v>
+        <v>372.7787</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7447</v>
+        <v>0.7885</v>
       </c>
       <c r="B10" s="0">
-        <v>790.7507</v>
+        <v>372.3554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6926</v>
+        <v>0.7387</v>
       </c>
       <c r="B11" s="0">
-        <v>790.7507</v>
+        <v>371.5165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6394</v>
+        <v>0.6883</v>
       </c>
       <c r="B12" s="0">
-        <v>788.4718</v>
+        <v>371.4959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5883</v>
+        <v>0.6354</v>
       </c>
       <c r="B13" s="0">
-        <v>787.3324</v>
+        <v>370.2464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5372</v>
+        <v>0.5855</v>
       </c>
       <c r="B14" s="0">
-        <v>786.193</v>
+        <v>370.6353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4851</v>
+        <v>0.5341</v>
       </c>
       <c r="B15" s="0">
-        <v>785.0536</v>
+        <v>368.9771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4319</v>
+        <v>0.4817</v>
       </c>
       <c r="B16" s="0">
-        <v>780.496</v>
+        <v>368.1371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3819</v>
+        <v>0.4314</v>
       </c>
       <c r="B17" s="0">
-        <v>778.2172</v>
+        <v>367.7072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3585</v>
+        <v>0.3794</v>
       </c>
       <c r="B18" s="0">
-        <v>775.9383</v>
+        <v>366.4582</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.334</v>
+        <v>0.3307</v>
       </c>
       <c r="B19" s="0">
-        <v>774.7989</v>
+        <v>365.6197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3181</v>
+        <v>0.2803</v>
       </c>
       <c r="B20" s="0">
-        <v>773.6595</v>
+        <v>363.9619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2809</v>
+        <v>0.24</v>
       </c>
       <c r="B21" s="0">
-        <v>769.1019</v>
+        <v>361.4898</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2574</v>
+        <v>0.2263</v>
       </c>
       <c r="B22" s="0">
-        <v>766.8231</v>
+        <v>361.8934</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2298</v>
+        <v>0.1854</v>
       </c>
       <c r="B23" s="0">
-        <v>759.9866</v>
+        <v>357.7839</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1904</v>
+        <v>0.1744</v>
       </c>
       <c r="B24" s="0">
-        <v>748.5925</v>
+        <v>359.4165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1734</v>
+        <v>0.1387</v>
       </c>
       <c r="B25" s="0">
-        <v>741.756</v>
+        <v>354.4906</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1255</v>
+        <v>0.1256</v>
       </c>
       <c r="B26" s="0">
-        <v>712.1314</v>
+        <v>355.3038</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0723</v>
+        <v>0.0711</v>
       </c>
       <c r="B27" s="0">
-        <v>646.0456</v>
+        <v>345.8681</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0191</v>
+        <v>0.0218</v>
       </c>
       <c r="B28" s="0">
-        <v>522.9893</v>
+        <v>325.7934</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0117</v>
+        <v>0.0108</v>
       </c>
       <c r="B29" s="0">
-        <v>478.5523</v>
+        <v>309.0085</v>
       </c>
     </row>
     <row r="30"/>
@@ -3587,6 +7275,998 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9878</v>
+      </c>
+      <c r="B3" s="0">
+        <v>395.7658</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9621</v>
+      </c>
+      <c r="B4" s="0">
+        <v>394.5274</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9306</v>
+      </c>
+      <c r="B5" s="0">
+        <v>395.7424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9117</v>
+      </c>
+      <c r="B6" s="0">
+        <v>394.5068</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8776</v>
+      </c>
+      <c r="B7" s="0">
+        <v>396.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8603</v>
+      </c>
+      <c r="B8" s="0">
+        <v>395.3044</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8252</v>
+      </c>
+      <c r="B9" s="0">
+        <v>396.5178</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.8084</v>
+      </c>
+      <c r="B10" s="0">
+        <v>395.2831</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7743</v>
+      </c>
+      <c r="B11" s="0">
+        <v>396.0877</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7581</v>
+      </c>
+      <c r="B12" s="0">
+        <v>395.6718</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7219</v>
+      </c>
+      <c r="B13" s="0">
+        <v>397.2941</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.7067</v>
+      </c>
+      <c r="B14" s="0">
+        <v>396.8786</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.671</v>
+      </c>
+      <c r="B15" s="0">
+        <v>398.5011</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6543</v>
+      </c>
+      <c r="B16" s="0">
+        <v>396.4479</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6191</v>
+      </c>
+      <c r="B17" s="0">
+        <v>397.6613</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5829</v>
+      </c>
+      <c r="B18" s="0">
+        <v>395.6001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5672</v>
+      </c>
+      <c r="B19" s="0">
+        <v>397.6401</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5321</v>
+      </c>
+      <c r="B20" s="0">
+        <v>395.9886</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5163</v>
+      </c>
+      <c r="B21" s="0">
+        <v>398.4378</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4833</v>
+      </c>
+      <c r="B22" s="0">
+        <v>397.6057</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4319</v>
+      </c>
+      <c r="B23" s="0">
+        <v>396.3569</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3816</v>
+      </c>
+      <c r="B24" s="0">
+        <v>395.5177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3328</v>
+      </c>
+      <c r="B25" s="0">
+        <v>394.2699</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.283</v>
+      </c>
+      <c r="B26" s="0">
+        <v>393.8402</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2405</v>
+      </c>
+      <c r="B27" s="0">
+        <v>390.1394</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.2264</v>
+      </c>
+      <c r="B28" s="0">
+        <v>391.7707</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1865</v>
+      </c>
+      <c r="B29" s="0">
+        <v>387.6616</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1781</v>
+      </c>
+      <c r="B30" s="0">
+        <v>390.9324</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.1356</v>
+      </c>
+      <c r="B31" s="0">
+        <v>384.3666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.1267</v>
+      </c>
+      <c r="B32" s="0">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0753</v>
+      </c>
+      <c r="B33" s="0">
+        <v>374.9285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0228</v>
+      </c>
+      <c r="B34" s="0">
+        <v>341.7556</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0102</v>
+      </c>
+      <c r="B35" s="0">
+        <v>322.5144</v>
+      </c>
+    </row>
+    <row r="36"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9879</v>
+      </c>
+      <c r="B3" s="0">
+        <v>582.8054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9444</v>
+      </c>
+      <c r="B4" s="0">
+        <v>578.2856</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.893</v>
+      </c>
+      <c r="B5" s="0">
+        <v>575.8089</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8411</v>
+      </c>
+      <c r="B6" s="0">
+        <v>574.5598</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7913</v>
+      </c>
+      <c r="B7" s="0">
+        <v>572.493</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7409</v>
+      </c>
+      <c r="B8" s="0">
+        <v>572.4724</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.689</v>
+      </c>
+      <c r="B9" s="0">
+        <v>570.4048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6376</v>
+      </c>
+      <c r="B10" s="0">
+        <v>568.3374</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5852</v>
+      </c>
+      <c r="B11" s="0">
+        <v>565.451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5354</v>
+      </c>
+      <c r="B12" s="0">
+        <v>564.2027</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4824</v>
+      </c>
+      <c r="B13" s="0">
+        <v>560.0883</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4294</v>
+      </c>
+      <c r="B14" s="0">
+        <v>557.2017</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3775</v>
+      </c>
+      <c r="B15" s="0">
+        <v>553.4969</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3502</v>
+      </c>
+      <c r="B16" s="0">
+        <v>551.0301</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3062</v>
+      </c>
+      <c r="B17" s="0">
+        <v>546.9193</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2469</v>
+      </c>
+      <c r="B18" s="0">
+        <v>538.3002</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1819</v>
+      </c>
+      <c r="B19" s="0">
+        <v>526.4046</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1231</v>
+      </c>
+      <c r="B20" s="0">
+        <v>499.3683</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0764</v>
+      </c>
+      <c r="B21" s="0">
+        <v>465.7884</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0696</v>
+      </c>
+      <c r="B22" s="0">
+        <v>459.2372</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0239</v>
+      </c>
+      <c r="B23" s="0">
+        <v>391.6878</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0197</v>
+      </c>
+      <c r="B24" s="0">
+        <v>383.9099</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.0124</v>
+      </c>
+      <c r="B25" s="0">
+        <v>354.8482</v>
+      </c>
+    </row>
+    <row r="26"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9862</v>
+      </c>
+      <c r="B3" s="0">
+        <v>371.4477</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9404</v>
+      </c>
+      <c r="B4" s="0">
+        <v>371.4477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9277</v>
+      </c>
+      <c r="B5" s="0">
+        <v>371.4477</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8904</v>
+      </c>
+      <c r="B6" s="0">
+        <v>370.3083</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8745</v>
+      </c>
+      <c r="B7" s="0">
+        <v>371.4477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8383</v>
+      </c>
+      <c r="B8" s="0">
+        <v>370.3083</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8266</v>
+      </c>
+      <c r="B9" s="0">
+        <v>370.3083</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7894</v>
+      </c>
+      <c r="B10" s="0">
+        <v>369.1689</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7383</v>
+      </c>
+      <c r="B11" s="0">
+        <v>368.0295</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6872</v>
+      </c>
+      <c r="B12" s="0">
+        <v>368.0295</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6351</v>
+      </c>
+      <c r="B13" s="0">
+        <v>369.1689</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5851</v>
+      </c>
+      <c r="B14" s="0">
+        <v>366.8901</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.533</v>
+      </c>
+      <c r="B15" s="0">
+        <v>369.1689</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4819</v>
+      </c>
+      <c r="B16" s="0">
+        <v>366.8901</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4309</v>
+      </c>
+      <c r="B17" s="0">
+        <v>364.6113</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3798</v>
+      </c>
+      <c r="B18" s="0">
+        <v>364.6113</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3287</v>
+      </c>
+      <c r="B19" s="0">
+        <v>364.6113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2809</v>
+      </c>
+      <c r="B20" s="0">
+        <v>363.4718</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2394</v>
+      </c>
+      <c r="B21" s="0">
+        <v>361.193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2255</v>
+      </c>
+      <c r="B22" s="0">
+        <v>361.193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1851</v>
+      </c>
+      <c r="B23" s="0">
+        <v>357.7748</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1745</v>
+      </c>
+      <c r="B24" s="0">
+        <v>357.7748</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1372</v>
+      </c>
+      <c r="B25" s="0">
+        <v>354.3566</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.1245</v>
+      </c>
+      <c r="B26" s="0">
+        <v>355.496</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0702</v>
+      </c>
+      <c r="B27" s="0">
+        <v>346.3807</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0191</v>
+      </c>
+      <c r="B28" s="0">
+        <v>322.4531</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0106</v>
+      </c>
+      <c r="B29" s="0">
+        <v>306.5013</v>
+      </c>
+    </row>
+    <row r="30"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9915</v>
+      </c>
+      <c r="B3" s="0">
+        <v>802.1448</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9468</v>
+      </c>
+      <c r="B4" s="0">
+        <v>795.3083</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8968</v>
+      </c>
+      <c r="B5" s="0">
+        <v>794.1689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.884</v>
+      </c>
+      <c r="B6" s="0">
+        <v>793.0295</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8447</v>
+      </c>
+      <c r="B7" s="0">
+        <v>791.8901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.833</v>
+      </c>
+      <c r="B8" s="0">
+        <v>791.8901</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7957</v>
+      </c>
+      <c r="B9" s="0">
+        <v>793.0295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7447</v>
+      </c>
+      <c r="B10" s="0">
+        <v>790.7507</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6926</v>
+      </c>
+      <c r="B11" s="0">
+        <v>790.7507</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6394</v>
+      </c>
+      <c r="B12" s="0">
+        <v>788.4718</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5883</v>
+      </c>
+      <c r="B13" s="0">
+        <v>787.3324</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5372</v>
+      </c>
+      <c r="B14" s="0">
+        <v>786.193</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4851</v>
+      </c>
+      <c r="B15" s="0">
+        <v>785.0536</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4319</v>
+      </c>
+      <c r="B16" s="0">
+        <v>780.496</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3819</v>
+      </c>
+      <c r="B17" s="0">
+        <v>778.2172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3585</v>
+      </c>
+      <c r="B18" s="0">
+        <v>775.9383</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.334</v>
+      </c>
+      <c r="B19" s="0">
+        <v>774.7989</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3181</v>
+      </c>
+      <c r="B20" s="0">
+        <v>773.6595</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2809</v>
+      </c>
+      <c r="B21" s="0">
+        <v>769.1019</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2574</v>
+      </c>
+      <c r="B22" s="0">
+        <v>766.8231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.2298</v>
+      </c>
+      <c r="B23" s="0">
+        <v>759.9866</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1904</v>
+      </c>
+      <c r="B24" s="0">
+        <v>748.5925</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1734</v>
+      </c>
+      <c r="B25" s="0">
+        <v>741.756</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.1255</v>
+      </c>
+      <c r="B26" s="0">
+        <v>712.1314</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0723</v>
+      </c>
+      <c r="B27" s="0">
+        <v>646.0456</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0191</v>
+      </c>
+      <c r="B28" s="0">
+        <v>522.9893</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0117</v>
+      </c>
+      <c r="B29" s="0">
+        <v>478.5523</v>
+      </c>
+    </row>
+    <row r="30"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3595,7 +8275,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">

--- a/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 UFFA-1-600-b-black  0&amp;" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 UFFA-2-600-b-red  0&amp;1&amp;" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 UFFA-3-600-b-blue  0&amp;1" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 UFFA-4-600-b-green  0&amp;" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2_1 niebieski  0&amp;1&amp;0&amp;850" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2_1 rozowy  0&amp;1&amp;0&amp;850 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2_1 zielony  0&amp;1&amp;0&amp;850 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_1 niebieski  0&amp;1&amp;0&amp;850" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 rozowy  0&amp;1&amp;0&amp;850 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 zielony  0&amp;1&amp;0&amp;850 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_2 UFFA-1-600-b-black  " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_2 UFFA-2-600-b-red  0&amp;" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 UFFA-3-600-b-blue  0" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 UFFA-4-600-b-green  " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -20,13 +20,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>UFFA-1-600-b-black</t>
+    <t>niebieski</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>rozowy</t>
+  </si>
+  <si>
+    <t>zielony</t>
+  </si>
+  <si>
+    <t>UFFA-1-600-b-black</t>
   </si>
   <si>
     <t>UFFA-2-600-b-red</t>
@@ -36,15 +45,6 @@
   </si>
   <si>
     <t>UFFA-4-600-b-green</t>
-  </si>
-  <si>
-    <t>niebieski</t>
-  </si>
-  <si>
-    <t>rozowy</t>
-  </si>
-  <si>
-    <t>zielony</t>
   </si>
 </sst>
 </file>
@@ -89,1262 +89,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki UFFA-1-600-b-black z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 UFFA-1-600-b-black  0&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 UFFA-1-600-b-black  0&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="600"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki UFFA-2-600-b-red z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 UFFA-2-600-b-red  0&amp;1&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 UFFA-2-600-b-red  0&amp;1&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="600"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki UFFA-3-600-b-blue z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 UFFA-3-600-b-blue  0&amp;1'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 UFFA-3-600-b-blue  0&amp;1'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="600"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki UFFA-4-600-b-green z wykresu 'Figure 2' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 2 UFFA-4-600-b-green  0&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 2 UFFA-4-600-b-green  0&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="600"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1658,7 +402,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1972,7 +716,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2154,6 +898,1262 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="850"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-1-600-b-black z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 UFFA-1-600-b-black  '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 UFFA-1-600-b-black  '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-2-600-b-red z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 UFFA-2-600-b-red  0&amp;'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 UFFA-2-600-b-red  0&amp;'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-3-600-b-blue z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 UFFA-3-600-b-blue  0'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 UFFA-3-600-b-blue  0'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-4-600-b-green z wykresu 'Figure 2_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 UFFA-4-600-b-green  '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_2 UFFA-4-600-b-green  '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6755,7 +6755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6776,253 +6776,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9886</v>
+        <v>0.9862</v>
       </c>
       <c r="B3" s="0">
-        <v>149.7907</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.944</v>
+        <v>0.9404</v>
       </c>
       <c r="B4" s="0">
-        <v>140.3591</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.891</v>
+        <v>0.9277</v>
       </c>
       <c r="B5" s="0">
-        <v>139.1096</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8795</v>
+        <v>0.8904</v>
       </c>
       <c r="B6" s="0">
-        <v>139.9234</v>
+        <v>370.3083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8418</v>
+        <v>0.8745</v>
       </c>
       <c r="B7" s="0">
-        <v>137.8616</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8092</v>
+        <v>0.8383</v>
       </c>
       <c r="B8" s="0">
-        <v>138.2575</v>
+        <v>370.3083</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7594</v>
+        <v>0.8266</v>
       </c>
       <c r="B9" s="0">
-        <v>137.4186</v>
+        <v>370.3083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7411</v>
+        <v>0.7894</v>
       </c>
       <c r="B10" s="0">
-        <v>138.6389</v>
+        <v>369.1689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7065</v>
+        <v>0.7383</v>
       </c>
       <c r="B11" s="0">
-        <v>137.8062</v>
+        <v>368.0295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.674</v>
+        <v>0.6872</v>
       </c>
       <c r="B12" s="0">
-        <v>138.2022</v>
+        <v>368.0295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6572</v>
+        <v>0.6351</v>
       </c>
       <c r="B13" s="0">
-        <v>137.3767</v>
+        <v>369.1689</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6199</v>
+        <v>0.5851</v>
       </c>
       <c r="B14" s="0">
-        <v>138.9986</v>
+        <v>366.8901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6037</v>
+        <v>0.533</v>
       </c>
       <c r="B15" s="0">
-        <v>137.7641</v>
+        <v>369.1689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5691</v>
+        <v>0.4819</v>
       </c>
       <c r="B16" s="0">
-        <v>139.7963</v>
+        <v>366.8901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5533</v>
+        <v>0.4309</v>
       </c>
       <c r="B17" s="0">
-        <v>137.7435</v>
+        <v>364.6113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5166</v>
+        <v>0.3798</v>
       </c>
       <c r="B18" s="0">
-        <v>139.3656</v>
+        <v>364.6113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5025</v>
+        <v>0.3287</v>
       </c>
       <c r="B19" s="0">
-        <v>137.3134</v>
+        <v>364.6113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4653</v>
+        <v>0.2809</v>
       </c>
       <c r="B20" s="0">
-        <v>140.1631</v>
+        <v>363.4718</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4312</v>
+        <v>0.2394</v>
       </c>
       <c r="B21" s="0">
-        <v>139.3306</v>
+        <v>361.193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4133</v>
+        <v>0.2255</v>
       </c>
       <c r="B22" s="0">
-        <v>140.1419</v>
+        <v>361.193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3787</v>
+        <v>0.1851</v>
       </c>
       <c r="B23" s="0">
-        <v>138.4906</v>
+        <v>357.7748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.363</v>
+        <v>0.1745</v>
       </c>
       <c r="B24" s="0">
-        <v>139.712</v>
+        <v>357.7748</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3294</v>
+        <v>0.1372</v>
       </c>
       <c r="B25" s="0">
-        <v>137.6519</v>
+        <v>354.3566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3111</v>
+        <v>0.1245</v>
       </c>
       <c r="B26" s="0">
-        <v>140.5093</v>
+        <v>355.496</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2791</v>
+        <v>0.0702</v>
       </c>
       <c r="B27" s="0">
-        <v>138.4498</v>
+        <v>346.3807</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2282</v>
+        <v>0.0191</v>
       </c>
       <c r="B28" s="0">
-        <v>138.0197</v>
+        <v>322.4531</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.18</v>
+        <v>0.0106</v>
       </c>
       <c r="B29" s="0">
-        <v>137.1814</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.1317</v>
-      </c>
-      <c r="B30" s="0">
-        <v>135.9339</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0746</v>
-      </c>
-      <c r="B31" s="0">
-        <v>133.8641</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B32" s="0">
-        <v>129.3397</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0111</v>
-      </c>
-      <c r="B33" s="0">
-        <v>124.4247</v>
-      </c>
-    </row>
-    <row r="34"/>
+        <v>306.5013</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7052,218 +7020,218 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9841</v>
+        <v>0.9915</v>
       </c>
       <c r="B3" s="0">
-        <v>373.6633</v>
+        <v>802.1448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9405</v>
+        <v>0.9468</v>
       </c>
       <c r="B4" s="0">
-        <v>372.827</v>
+        <v>795.3083</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.928</v>
+        <v>0.8968</v>
       </c>
       <c r="B5" s="0">
-        <v>372.8218</v>
+        <v>794.1689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8897</v>
+        <v>0.884</v>
       </c>
       <c r="B6" s="0">
-        <v>372.3969</v>
+        <v>793.0295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8745</v>
+        <v>0.8447</v>
       </c>
       <c r="B7" s="0">
-        <v>372.7999</v>
+        <v>791.8901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8393</v>
+        <v>0.833</v>
       </c>
       <c r="B8" s="0">
-        <v>371.967</v>
+        <v>791.8901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8226</v>
+        <v>0.7957</v>
       </c>
       <c r="B9" s="0">
-        <v>372.7787</v>
+        <v>793.0295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7885</v>
+        <v>0.7447</v>
       </c>
       <c r="B10" s="0">
-        <v>372.3554</v>
+        <v>790.7507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7387</v>
+        <v>0.6926</v>
       </c>
       <c r="B11" s="0">
-        <v>371.5165</v>
+        <v>790.7507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6883</v>
+        <v>0.6394</v>
       </c>
       <c r="B12" s="0">
-        <v>371.4959</v>
+        <v>788.4718</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6354</v>
+        <v>0.5883</v>
       </c>
       <c r="B13" s="0">
-        <v>370.2464</v>
+        <v>787.3324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5855</v>
+        <v>0.5372</v>
       </c>
       <c r="B14" s="0">
-        <v>370.6353</v>
+        <v>786.193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5341</v>
+        <v>0.4851</v>
       </c>
       <c r="B15" s="0">
-        <v>368.9771</v>
+        <v>785.0536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4817</v>
+        <v>0.4319</v>
       </c>
       <c r="B16" s="0">
-        <v>368.1371</v>
+        <v>780.496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4314</v>
+        <v>0.3819</v>
       </c>
       <c r="B17" s="0">
-        <v>367.7072</v>
+        <v>778.2172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3794</v>
+        <v>0.3585</v>
       </c>
       <c r="B18" s="0">
-        <v>366.4582</v>
+        <v>775.9383</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3307</v>
+        <v>0.334</v>
       </c>
       <c r="B19" s="0">
-        <v>365.6197</v>
+        <v>774.7989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2803</v>
+        <v>0.3181</v>
       </c>
       <c r="B20" s="0">
-        <v>363.9619</v>
+        <v>773.6595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.24</v>
+        <v>0.2809</v>
       </c>
       <c r="B21" s="0">
-        <v>361.4898</v>
+        <v>769.1019</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2263</v>
+        <v>0.2574</v>
       </c>
       <c r="B22" s="0">
-        <v>361.8934</v>
+        <v>766.8231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1854</v>
+        <v>0.2298</v>
       </c>
       <c r="B23" s="0">
-        <v>357.7839</v>
+        <v>759.9866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1744</v>
+        <v>0.1904</v>
       </c>
       <c r="B24" s="0">
-        <v>359.4165</v>
+        <v>748.5925</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1387</v>
+        <v>0.1734</v>
       </c>
       <c r="B25" s="0">
-        <v>354.4906</v>
+        <v>741.756</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1256</v>
+        <v>0.1255</v>
       </c>
       <c r="B26" s="0">
-        <v>355.3038</v>
+        <v>712.1314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0711</v>
+        <v>0.0723</v>
       </c>
       <c r="B27" s="0">
-        <v>345.8681</v>
+        <v>646.0456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0218</v>
+        <v>0.0191</v>
       </c>
       <c r="B28" s="0">
-        <v>325.7934</v>
+        <v>522.9893</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0108</v>
+        <v>0.0117</v>
       </c>
       <c r="B29" s="0">
-        <v>309.0085</v>
+        <v>478.5523</v>
       </c>
     </row>
     <row r="30"/>
@@ -7275,7 +7243,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7296,269 +7264,229 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9878</v>
+        <v>0.9883</v>
       </c>
       <c r="B3" s="0">
-        <v>395.7658</v>
+        <v>675.6702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9621</v>
+        <v>0.9447</v>
       </c>
       <c r="B4" s="0">
-        <v>394.5274</v>
+        <v>674.5308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9306</v>
+        <v>0.8936</v>
       </c>
       <c r="B5" s="0">
-        <v>395.7424</v>
+        <v>673.3914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9117</v>
+        <v>0.8809</v>
       </c>
       <c r="B6" s="0">
-        <v>394.5068</v>
+        <v>673.3914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8776</v>
+        <v>0.8415</v>
       </c>
       <c r="B7" s="0">
-        <v>396.13</v>
+        <v>673.3914</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8603</v>
+        <v>0.8287</v>
       </c>
       <c r="B8" s="0">
-        <v>395.3044</v>
+        <v>673.3914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8252</v>
+        <v>0.7947</v>
       </c>
       <c r="B9" s="0">
-        <v>396.5178</v>
+        <v>672.252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8084</v>
+        <v>0.7426</v>
       </c>
       <c r="B10" s="0">
-        <v>395.2831</v>
+        <v>671.1126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7743</v>
+        <v>0.6915</v>
       </c>
       <c r="B11" s="0">
-        <v>396.0877</v>
+        <v>671.1126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.7581</v>
+        <v>0.6394</v>
       </c>
       <c r="B12" s="0">
-        <v>395.6718</v>
+        <v>669.9732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7219</v>
+        <v>0.5872</v>
       </c>
       <c r="B13" s="0">
-        <v>397.2941</v>
+        <v>667.6944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7067</v>
+        <v>0.5372</v>
       </c>
       <c r="B14" s="0">
-        <v>396.8786</v>
+        <v>666.555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.671</v>
+        <v>0.483</v>
       </c>
       <c r="B15" s="0">
-        <v>398.5011</v>
+        <v>664.2761</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6543</v>
+        <v>0.4319</v>
       </c>
       <c r="B16" s="0">
-        <v>396.4479</v>
+        <v>663.1367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6191</v>
+        <v>0.383</v>
       </c>
       <c r="B17" s="0">
-        <v>397.6613</v>
+        <v>660.8579</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5829</v>
+        <v>0.3415</v>
       </c>
       <c r="B18" s="0">
-        <v>395.6001</v>
+        <v>658.5791</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5672</v>
+        <v>0.3287</v>
       </c>
       <c r="B19" s="0">
-        <v>397.6401</v>
+        <v>659.7185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5321</v>
+        <v>0.3149</v>
       </c>
       <c r="B20" s="0">
-        <v>395.9886</v>
+        <v>657.4397</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5163</v>
+        <v>0.283</v>
       </c>
       <c r="B21" s="0">
-        <v>398.4378</v>
+        <v>654.0214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4833</v>
+        <v>0.2468</v>
       </c>
       <c r="B22" s="0">
-        <v>397.6057</v>
+        <v>650.6032</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4319</v>
+        <v>0.2287</v>
       </c>
       <c r="B23" s="0">
-        <v>396.3569</v>
+        <v>651.7426</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3816</v>
+        <v>0.2064</v>
       </c>
       <c r="B24" s="0">
-        <v>395.5177</v>
+        <v>646.0456</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3328</v>
+        <v>0.1745</v>
       </c>
       <c r="B25" s="0">
-        <v>394.2699</v>
+        <v>641.4879</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.283</v>
+        <v>0.1213</v>
       </c>
       <c r="B26" s="0">
-        <v>393.8402</v>
+        <v>626.6756</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2405</v>
+        <v>0.0777</v>
       </c>
       <c r="B27" s="0">
-        <v>390.1394</v>
+        <v>599.3298</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2264</v>
+        <v>0.0681</v>
       </c>
       <c r="B28" s="0">
-        <v>391.7707</v>
+        <v>591.3539</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1865</v>
+        <v>0.0191</v>
       </c>
       <c r="B29" s="0">
-        <v>387.6616</v>
+        <v>502.4799</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.1781</v>
+        <v>0.0106</v>
       </c>
       <c r="B30" s="0">
-        <v>390.9324</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.1356</v>
-      </c>
-      <c r="B31" s="0">
-        <v>384.3666</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.1267</v>
-      </c>
-      <c r="B32" s="0">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0753</v>
-      </c>
-      <c r="B33" s="0">
-        <v>374.9285</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0228</v>
-      </c>
-      <c r="B34" s="0">
-        <v>341.7556</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0102</v>
-      </c>
-      <c r="B35" s="0">
-        <v>322.5144</v>
-      </c>
-    </row>
-    <row r="36"/>
+        <v>458.0429</v>
+      </c>
+    </row>
+    <row r="31"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7567,7 +7495,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7588,189 +7516,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9879</v>
+        <v>0.9886</v>
       </c>
       <c r="B3" s="0">
-        <v>582.8054</v>
+        <v>149.7907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9444</v>
+        <v>0.944</v>
       </c>
       <c r="B4" s="0">
-        <v>578.2856</v>
+        <v>140.3591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.893</v>
+        <v>0.891</v>
       </c>
       <c r="B5" s="0">
-        <v>575.8089</v>
+        <v>139.1096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8411</v>
+        <v>0.8795</v>
       </c>
       <c r="B6" s="0">
-        <v>574.5598</v>
+        <v>139.9234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.7913</v>
+        <v>0.8418</v>
       </c>
       <c r="B7" s="0">
-        <v>572.493</v>
+        <v>137.8616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.7409</v>
+        <v>0.8092</v>
       </c>
       <c r="B8" s="0">
-        <v>572.4724</v>
+        <v>138.2575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.689</v>
+        <v>0.7594</v>
       </c>
       <c r="B9" s="0">
-        <v>570.4048</v>
+        <v>137.4186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.6376</v>
+        <v>0.7411</v>
       </c>
       <c r="B10" s="0">
-        <v>568.3374</v>
+        <v>138.6389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5852</v>
+        <v>0.7065</v>
       </c>
       <c r="B11" s="0">
-        <v>565.451</v>
+        <v>137.8062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.5354</v>
+        <v>0.674</v>
       </c>
       <c r="B12" s="0">
-        <v>564.2027</v>
+        <v>138.2022</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4824</v>
+        <v>0.6572</v>
       </c>
       <c r="B13" s="0">
-        <v>560.0883</v>
+        <v>137.3767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4294</v>
+        <v>0.6199</v>
       </c>
       <c r="B14" s="0">
-        <v>557.2017</v>
+        <v>138.9986</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3775</v>
+        <v>0.6037</v>
       </c>
       <c r="B15" s="0">
-        <v>553.4969</v>
+        <v>137.7641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3502</v>
+        <v>0.5691</v>
       </c>
       <c r="B16" s="0">
-        <v>551.0301</v>
+        <v>139.7963</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3062</v>
+        <v>0.5533</v>
       </c>
       <c r="B17" s="0">
-        <v>546.9193</v>
+        <v>137.7435</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2469</v>
+        <v>0.5166</v>
       </c>
       <c r="B18" s="0">
-        <v>538.3002</v>
+        <v>139.3656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1819</v>
+        <v>0.5025</v>
       </c>
       <c r="B19" s="0">
-        <v>526.4046</v>
+        <v>137.3134</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1231</v>
+        <v>0.4653</v>
       </c>
       <c r="B20" s="0">
-        <v>499.3683</v>
+        <v>140.1631</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0764</v>
+        <v>0.4312</v>
       </c>
       <c r="B21" s="0">
-        <v>465.7884</v>
+        <v>139.3306</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0696</v>
+        <v>0.4133</v>
       </c>
       <c r="B22" s="0">
-        <v>459.2372</v>
+        <v>140.1419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0239</v>
+        <v>0.3787</v>
       </c>
       <c r="B23" s="0">
-        <v>391.6878</v>
+        <v>138.4906</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0197</v>
+        <v>0.363</v>
       </c>
       <c r="B24" s="0">
-        <v>383.9099</v>
+        <v>139.712</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0124</v>
+        <v>0.3294</v>
       </c>
       <c r="B25" s="0">
-        <v>354.8482</v>
-      </c>
-    </row>
-    <row r="26"/>
+        <v>137.6519</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3111</v>
+      </c>
+      <c r="B26" s="0">
+        <v>140.5093</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2791</v>
+      </c>
+      <c r="B27" s="0">
+        <v>138.4498</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.2282</v>
+      </c>
+      <c r="B28" s="0">
+        <v>138.0197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B29" s="0">
+        <v>137.1814</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1317</v>
+      </c>
+      <c r="B30" s="0">
+        <v>135.9339</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0746</v>
+      </c>
+      <c r="B31" s="0">
+        <v>133.8641</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B32" s="0">
+        <v>129.3397</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0111</v>
+      </c>
+      <c r="B33" s="0">
+        <v>124.4247</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7800,34 +7792,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9862</v>
+        <v>0.9841</v>
       </c>
       <c r="B3" s="0">
-        <v>371.4477</v>
+        <v>373.6633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9404</v>
+        <v>0.9405</v>
       </c>
       <c r="B4" s="0">
-        <v>371.4477</v>
+        <v>372.827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9277</v>
+        <v>0.928</v>
       </c>
       <c r="B5" s="0">
-        <v>371.4477</v>
+        <v>372.8218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8904</v>
+        <v>0.8897</v>
       </c>
       <c r="B6" s="0">
-        <v>370.3083</v>
+        <v>372.3969</v>
       </c>
     </row>
     <row r="7">
@@ -7835,183 +7827,183 @@
         <v>0.8745</v>
       </c>
       <c r="B7" s="0">
-        <v>371.4477</v>
+        <v>372.7999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8383</v>
+        <v>0.8393</v>
       </c>
       <c r="B8" s="0">
-        <v>370.3083</v>
+        <v>371.967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8266</v>
+        <v>0.8226</v>
       </c>
       <c r="B9" s="0">
-        <v>370.3083</v>
+        <v>372.7787</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7894</v>
+        <v>0.7885</v>
       </c>
       <c r="B10" s="0">
-        <v>369.1689</v>
+        <v>372.3554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7383</v>
+        <v>0.7387</v>
       </c>
       <c r="B11" s="0">
-        <v>368.0295</v>
+        <v>371.5165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6872</v>
+        <v>0.6883</v>
       </c>
       <c r="B12" s="0">
-        <v>368.0295</v>
+        <v>371.4959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6351</v>
+        <v>0.6354</v>
       </c>
       <c r="B13" s="0">
-        <v>369.1689</v>
+        <v>370.2464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5851</v>
+        <v>0.5855</v>
       </c>
       <c r="B14" s="0">
-        <v>366.8901</v>
+        <v>370.6353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.533</v>
+        <v>0.5341</v>
       </c>
       <c r="B15" s="0">
-        <v>369.1689</v>
+        <v>368.9771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4819</v>
+        <v>0.4817</v>
       </c>
       <c r="B16" s="0">
-        <v>366.8901</v>
+        <v>368.1371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4309</v>
+        <v>0.4314</v>
       </c>
       <c r="B17" s="0">
-        <v>364.6113</v>
+        <v>367.7072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3798</v>
+        <v>0.3794</v>
       </c>
       <c r="B18" s="0">
-        <v>364.6113</v>
+        <v>366.4582</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3287</v>
+        <v>0.3307</v>
       </c>
       <c r="B19" s="0">
-        <v>364.6113</v>
+        <v>365.6197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2809</v>
+        <v>0.2803</v>
       </c>
       <c r="B20" s="0">
-        <v>363.4718</v>
+        <v>363.9619</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2394</v>
+        <v>0.24</v>
       </c>
       <c r="B21" s="0">
-        <v>361.193</v>
+        <v>361.4898</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2255</v>
+        <v>0.2263</v>
       </c>
       <c r="B22" s="0">
-        <v>361.193</v>
+        <v>361.8934</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1851</v>
+        <v>0.1854</v>
       </c>
       <c r="B23" s="0">
-        <v>357.7748</v>
+        <v>357.7839</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1745</v>
+        <v>0.1744</v>
       </c>
       <c r="B24" s="0">
-        <v>357.7748</v>
+        <v>359.4165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1372</v>
+        <v>0.1387</v>
       </c>
       <c r="B25" s="0">
-        <v>354.3566</v>
+        <v>354.4906</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1245</v>
+        <v>0.1256</v>
       </c>
       <c r="B26" s="0">
-        <v>355.496</v>
+        <v>355.3038</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0702</v>
+        <v>0.0711</v>
       </c>
       <c r="B27" s="0">
-        <v>346.3807</v>
+        <v>345.8681</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0191</v>
+        <v>0.0218</v>
       </c>
       <c r="B28" s="0">
-        <v>322.4531</v>
+        <v>325.7934</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0106</v>
+        <v>0.0108</v>
       </c>
       <c r="B29" s="0">
-        <v>306.5013</v>
+        <v>309.0085</v>
       </c>
     </row>
     <row r="30"/>
@@ -8023,7 +8015,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8044,221 +8036,269 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9915</v>
+        <v>0.9878</v>
       </c>
       <c r="B3" s="0">
-        <v>802.1448</v>
+        <v>395.7658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9468</v>
+        <v>0.9621</v>
       </c>
       <c r="B4" s="0">
-        <v>795.3083</v>
+        <v>394.5274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8968</v>
+        <v>0.9306</v>
       </c>
       <c r="B5" s="0">
-        <v>794.1689</v>
+        <v>395.7424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.884</v>
+        <v>0.9117</v>
       </c>
       <c r="B6" s="0">
-        <v>793.0295</v>
+        <v>394.5068</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8447</v>
+        <v>0.8776</v>
       </c>
       <c r="B7" s="0">
-        <v>791.8901</v>
+        <v>396.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.833</v>
+        <v>0.8603</v>
       </c>
       <c r="B8" s="0">
-        <v>791.8901</v>
+        <v>395.3044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7957</v>
+        <v>0.8252</v>
       </c>
       <c r="B9" s="0">
-        <v>793.0295</v>
+        <v>396.5178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7447</v>
+        <v>0.8084</v>
       </c>
       <c r="B10" s="0">
-        <v>790.7507</v>
+        <v>395.2831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6926</v>
+        <v>0.7743</v>
       </c>
       <c r="B11" s="0">
-        <v>790.7507</v>
+        <v>396.0877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6394</v>
+        <v>0.7581</v>
       </c>
       <c r="B12" s="0">
-        <v>788.4718</v>
+        <v>395.6718</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5883</v>
+        <v>0.7219</v>
       </c>
       <c r="B13" s="0">
-        <v>787.3324</v>
+        <v>397.2941</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5372</v>
+        <v>0.7067</v>
       </c>
       <c r="B14" s="0">
-        <v>786.193</v>
+        <v>396.8786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4851</v>
+        <v>0.671</v>
       </c>
       <c r="B15" s="0">
-        <v>785.0536</v>
+        <v>398.5011</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4319</v>
+        <v>0.6543</v>
       </c>
       <c r="B16" s="0">
-        <v>780.496</v>
+        <v>396.4479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3819</v>
+        <v>0.6191</v>
       </c>
       <c r="B17" s="0">
-        <v>778.2172</v>
+        <v>397.6613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3585</v>
+        <v>0.5829</v>
       </c>
       <c r="B18" s="0">
-        <v>775.9383</v>
+        <v>395.6001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.334</v>
+        <v>0.5672</v>
       </c>
       <c r="B19" s="0">
-        <v>774.7989</v>
+        <v>397.6401</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3181</v>
+        <v>0.5321</v>
       </c>
       <c r="B20" s="0">
-        <v>773.6595</v>
+        <v>395.9886</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2809</v>
+        <v>0.5163</v>
       </c>
       <c r="B21" s="0">
-        <v>769.1019</v>
+        <v>398.4378</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2574</v>
+        <v>0.4833</v>
       </c>
       <c r="B22" s="0">
-        <v>766.8231</v>
+        <v>397.6057</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2298</v>
+        <v>0.4319</v>
       </c>
       <c r="B23" s="0">
-        <v>759.9866</v>
+        <v>396.3569</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1904</v>
+        <v>0.3816</v>
       </c>
       <c r="B24" s="0">
-        <v>748.5925</v>
+        <v>395.5177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1734</v>
+        <v>0.3328</v>
       </c>
       <c r="B25" s="0">
-        <v>741.756</v>
+        <v>394.2699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1255</v>
+        <v>0.283</v>
       </c>
       <c r="B26" s="0">
-        <v>712.1314</v>
+        <v>393.8402</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0723</v>
+        <v>0.2405</v>
       </c>
       <c r="B27" s="0">
-        <v>646.0456</v>
+        <v>390.1394</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0191</v>
+        <v>0.2264</v>
       </c>
       <c r="B28" s="0">
-        <v>522.9893</v>
+        <v>391.7707</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0117</v>
+        <v>0.1865</v>
       </c>
       <c r="B29" s="0">
-        <v>478.5523</v>
-      </c>
-    </row>
-    <row r="30"/>
+        <v>387.6616</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1781</v>
+      </c>
+      <c r="B30" s="0">
+        <v>390.9324</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.1356</v>
+      </c>
+      <c r="B31" s="0">
+        <v>384.3666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.1267</v>
+      </c>
+      <c r="B32" s="0">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0753</v>
+      </c>
+      <c r="B33" s="0">
+        <v>374.9285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0228</v>
+      </c>
+      <c r="B34" s="0">
+        <v>341.7556</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0102</v>
+      </c>
+      <c r="B35" s="0">
+        <v>322.5144</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8267,7 +8307,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8288,229 +8328,189 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9883</v>
+        <v>0.9879</v>
       </c>
       <c r="B3" s="0">
-        <v>675.6702</v>
+        <v>582.8054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9447</v>
+        <v>0.9444</v>
       </c>
       <c r="B4" s="0">
-        <v>674.5308</v>
+        <v>578.2856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8936</v>
+        <v>0.893</v>
       </c>
       <c r="B5" s="0">
-        <v>673.3914</v>
+        <v>575.8089</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8809</v>
+        <v>0.8411</v>
       </c>
       <c r="B6" s="0">
-        <v>673.3914</v>
+        <v>574.5598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8415</v>
+        <v>0.7913</v>
       </c>
       <c r="B7" s="0">
-        <v>673.3914</v>
+        <v>572.493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8287</v>
+        <v>0.7409</v>
       </c>
       <c r="B8" s="0">
-        <v>673.3914</v>
+        <v>572.4724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7947</v>
+        <v>0.689</v>
       </c>
       <c r="B9" s="0">
-        <v>672.252</v>
+        <v>570.4048</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7426</v>
+        <v>0.6376</v>
       </c>
       <c r="B10" s="0">
-        <v>671.1126</v>
+        <v>568.3374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6915</v>
+        <v>0.5852</v>
       </c>
       <c r="B11" s="0">
-        <v>671.1126</v>
+        <v>565.451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6394</v>
+        <v>0.5354</v>
       </c>
       <c r="B12" s="0">
-        <v>669.9732</v>
+        <v>564.2027</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5872</v>
+        <v>0.4824</v>
       </c>
       <c r="B13" s="0">
-        <v>667.6944</v>
+        <v>560.0883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5372</v>
+        <v>0.4294</v>
       </c>
       <c r="B14" s="0">
-        <v>666.555</v>
+        <v>557.2017</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.483</v>
+        <v>0.3775</v>
       </c>
       <c r="B15" s="0">
-        <v>664.2761</v>
+        <v>553.4969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4319</v>
+        <v>0.3502</v>
       </c>
       <c r="B16" s="0">
-        <v>663.1367</v>
+        <v>551.0301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.383</v>
+        <v>0.3062</v>
       </c>
       <c r="B17" s="0">
-        <v>660.8579</v>
+        <v>546.9193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3415</v>
+        <v>0.2469</v>
       </c>
       <c r="B18" s="0">
-        <v>658.5791</v>
+        <v>538.3002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3287</v>
+        <v>0.1819</v>
       </c>
       <c r="B19" s="0">
-        <v>659.7185</v>
+        <v>526.4046</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3149</v>
+        <v>0.1231</v>
       </c>
       <c r="B20" s="0">
-        <v>657.4397</v>
+        <v>499.3683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.283</v>
+        <v>0.0764</v>
       </c>
       <c r="B21" s="0">
-        <v>654.0214</v>
+        <v>465.7884</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2468</v>
+        <v>0.0696</v>
       </c>
       <c r="B22" s="0">
-        <v>650.6032</v>
+        <v>459.2372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2287</v>
+        <v>0.0239</v>
       </c>
       <c r="B23" s="0">
-        <v>651.7426</v>
+        <v>391.6878</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2064</v>
+        <v>0.0197</v>
       </c>
       <c r="B24" s="0">
-        <v>646.0456</v>
+        <v>383.9099</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1745</v>
+        <v>0.0124</v>
       </c>
       <c r="B25" s="0">
-        <v>641.4879</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.1213</v>
-      </c>
-      <c r="B26" s="0">
-        <v>626.6756</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0777</v>
-      </c>
-      <c r="B27" s="0">
-        <v>599.3298</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0681</v>
-      </c>
-      <c r="B28" s="0">
-        <v>591.3539</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0191</v>
-      </c>
-      <c r="B29" s="0">
-        <v>502.4799</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0106</v>
-      </c>
-      <c r="B30" s="0">
-        <v>458.0429</v>
-      </c>
-    </row>
-    <row r="31"/>
+        <v>354.8482</v>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 94 Furfuralcohol Co-Polymerized Urea Formaldehyde/Data94_all_graphs_excel.xlsx
@@ -5,22 +5,24 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2_1 niebieski  0&amp;1&amp;0&amp;850" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2_1 rozowy  0&amp;1&amp;0&amp;850 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2_1 zielony  0&amp;1&amp;0&amp;850 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_2 UFFA-1-600-b-black  " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2_2 UFFA-2-600-b-red  0&amp;" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2_2 UFFA-3-600-b-blue  0" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2_2 UFFA-4-600-b-green  " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_1 UFA-2-600  0&amp;1&amp;0&amp;850" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 UFFA-2-500  0&amp;1&amp;0&amp;85" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 UFFA-2-600  0&amp;1&amp;0&amp;85" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 UFFA-2-700  0&amp;1&amp;0&amp;85" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_1 UFFA-2-800  0&amp;1&amp;0&amp;85" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 UFFA-1-600-b-black  " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 UFFA-2-600-b-red  0&amp;" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_2 UFFA-3-600-b-blue  0" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 2_2 UFFA-4-600-b-green  " sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>niebieski</t>
+    <t>UFA-2-600</t>
   </si>
   <si>
     <t>X</t>
@@ -29,10 +31,16 @@
     <t>Y</t>
   </si>
   <si>
-    <t>rozowy</t>
+    <t>UFFA-2-500</t>
   </si>
   <si>
-    <t>zielony</t>
+    <t>UFFA-2-600</t>
+  </si>
+  <si>
+    <t>UFFA-2-700</t>
+  </si>
+  <si>
+    <t>UFFA-2-800</t>
   </si>
   <si>
     <t>UFFA-1-600-b-black</t>
@@ -121,7 +129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki niebieski z wykresu 'Figure 2_1' </a:t>
+              <a:t>Izoterma adsorpcji probki UFA-2-600 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -180,12 +188,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 niebieski  0&amp;1&amp;0&amp;850'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 UFA-2-600  0&amp;1&amp;0&amp;850'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 niebieski  0&amp;1&amp;0&amp;850'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 UFA-2-600  0&amp;1&amp;0&amp;850'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -435,7 +443,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki rozowy z wykresu 'Figure 2_1' </a:t>
+              <a:t>Izoterma adsorpcji probki UFFA-2-500 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -494,12 +502,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 rozowy  0&amp;1&amp;0&amp;850 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 UFFA-2-500  0&amp;1&amp;0&amp;85'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 rozowy  0&amp;1&amp;0&amp;850 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 UFFA-2-500  0&amp;1&amp;0&amp;85'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -749,7 +757,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki zielony z wykresu 'Figure 2_1' </a:t>
+              <a:t>Izoterma adsorpcji probki UFFA-2-600 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -808,12 +816,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 zielony  0&amp;1&amp;0&amp;850 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 UFFA-2-600  0&amp;1&amp;0&amp;85'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 zielony  0&amp;1&amp;0&amp;850 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 UFFA-2-600  0&amp;1&amp;0&amp;85'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1031,6 +1039,634 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-2-700 z wykresu 'Figure 2_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 UFFA-2-700  0&amp;1&amp;0&amp;85'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 UFFA-2-700  0&amp;1&amp;0&amp;85'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="850"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki UFFA-2-800 z wykresu 'Figure 2_1' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 UFFA-2-800  0&amp;1&amp;0&amp;85'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 2_1 UFFA-2-800  0&amp;1&amp;0&amp;85'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="850"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1344,7 +1980,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1658,7 +2294,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1972,7 +2608,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2566,6 +3202,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -5693,6 +6409,1048 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6458,6 +8216,76 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6755,7 +8583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6776,221 +8604,173 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9862</v>
+        <v>0.009</v>
       </c>
       <c r="B3" s="0">
-        <v>371.4477</v>
+        <v>269.394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9404</v>
+        <v>0.0194</v>
       </c>
       <c r="B4" s="0">
-        <v>371.4477</v>
+        <v>289.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9277</v>
+        <v>0.0731</v>
       </c>
       <c r="B5" s="0">
-        <v>371.4477</v>
+        <v>325.919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8904</v>
+        <v>0.1284</v>
       </c>
       <c r="B6" s="0">
-        <v>370.3083</v>
+        <v>337.9654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8745</v>
+        <v>0.1873</v>
       </c>
       <c r="B7" s="0">
-        <v>371.4477</v>
+        <v>343.5252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8383</v>
+        <v>0.2444</v>
       </c>
       <c r="B8" s="0">
-        <v>370.3083</v>
+        <v>349.0851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8266</v>
+        <v>0.2894</v>
       </c>
       <c r="B9" s="0">
-        <v>370.3083</v>
+        <v>351.865</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7894</v>
+        <v>0.3344</v>
       </c>
       <c r="B10" s="0">
-        <v>369.1689</v>
+        <v>352.7916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7383</v>
+        <v>0.3785</v>
       </c>
       <c r="B11" s="0">
-        <v>368.0295</v>
+        <v>354.6449</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6872</v>
+        <v>0.4304</v>
       </c>
       <c r="B12" s="0">
-        <v>368.0295</v>
+        <v>355.5715</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6351</v>
+        <v>0.4814</v>
       </c>
       <c r="B13" s="0">
-        <v>369.1689</v>
+        <v>360.2047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5851</v>
+        <v>0.5307</v>
       </c>
       <c r="B14" s="0">
-        <v>366.8901</v>
+        <v>361.1314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.533</v>
+        <v>0.5827</v>
       </c>
       <c r="B15" s="0">
-        <v>369.1689</v>
+        <v>361.1314</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4819</v>
+        <v>0.6346</v>
       </c>
       <c r="B16" s="0">
-        <v>366.8901</v>
+        <v>362.9847</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4309</v>
+        <v>0.6856</v>
       </c>
       <c r="B17" s="0">
-        <v>364.6113</v>
+        <v>363.9113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3798</v>
+        <v>0.7375</v>
       </c>
       <c r="B18" s="0">
-        <v>364.6113</v>
+        <v>364.8379</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3287</v>
+        <v>0.7877</v>
       </c>
       <c r="B19" s="0">
-        <v>364.6113</v>
+        <v>365.7646</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2809</v>
+        <v>0.8379</v>
       </c>
       <c r="B20" s="0">
-        <v>363.4718</v>
+        <v>365.7646</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2394</v>
+        <v>0.8907</v>
       </c>
       <c r="B21" s="0">
-        <v>361.193</v>
+        <v>366.6912</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2255</v>
+        <v>0.94</v>
       </c>
       <c r="B22" s="0">
-        <v>361.193</v>
+        <v>368.5445</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1851</v>
+        <v>0.9884</v>
       </c>
       <c r="B23" s="0">
-        <v>357.7748</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.1745</v>
-      </c>
-      <c r="B24" s="0">
-        <v>357.7748</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.1372</v>
-      </c>
-      <c r="B25" s="0">
-        <v>354.3566</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.1245</v>
-      </c>
-      <c r="B26" s="0">
-        <v>355.496</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0702</v>
-      </c>
-      <c r="B27" s="0">
-        <v>346.3807</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0191</v>
-      </c>
-      <c r="B28" s="0">
-        <v>322.4531</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0106</v>
-      </c>
-      <c r="B29" s="0">
-        <v>306.5013</v>
-      </c>
-    </row>
-    <row r="30"/>
+        <v>375.031</v>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6998,6 +8778,338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0177</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.035</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0696</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0809</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1189</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1544</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1743</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2054</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2253</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2617</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2772</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3127</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3274</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3672</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3975</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4157</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.4494</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.4659</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5005</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5186</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.5515</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.5679</v>
+      </c>
+      <c r="B24" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.6026</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.6207</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.6545</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.6726</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.7064</v>
+      </c>
+      <c r="B29" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.7254</v>
+      </c>
+      <c r="B30" s="0">
+        <v>2.5214</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7566</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.7756</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.8076</v>
+      </c>
+      <c r="B33" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.8275</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.8595</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.8794</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.9106</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.9452</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.6681</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.9616</v>
+      </c>
+      <c r="B39" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.991</v>
+      </c>
+      <c r="B40" s="0">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="41"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -7007,7 +9119,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -7020,202 +9132,202 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9915</v>
+        <v>0.9862</v>
       </c>
       <c r="B3" s="0">
-        <v>802.1448</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9468</v>
+        <v>0.9404</v>
       </c>
       <c r="B4" s="0">
-        <v>795.3083</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8968</v>
+        <v>0.9277</v>
       </c>
       <c r="B5" s="0">
-        <v>794.1689</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.884</v>
+        <v>0.8904</v>
       </c>
       <c r="B6" s="0">
-        <v>793.0295</v>
+        <v>370.3083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8447</v>
+        <v>0.8745</v>
       </c>
       <c r="B7" s="0">
-        <v>791.8901</v>
+        <v>371.4477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.833</v>
+        <v>0.8383</v>
       </c>
       <c r="B8" s="0">
-        <v>791.8901</v>
+        <v>370.3083</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.7957</v>
+        <v>0.8266</v>
       </c>
       <c r="B9" s="0">
-        <v>793.0295</v>
+        <v>370.3083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7447</v>
+        <v>0.7894</v>
       </c>
       <c r="B10" s="0">
-        <v>790.7507</v>
+        <v>369.1689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6926</v>
+        <v>0.7383</v>
       </c>
       <c r="B11" s="0">
-        <v>790.7507</v>
+        <v>368.0295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6394</v>
+        <v>0.6872</v>
       </c>
       <c r="B12" s="0">
-        <v>788.4718</v>
+        <v>368.0295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5883</v>
+        <v>0.6351</v>
       </c>
       <c r="B13" s="0">
-        <v>787.3324</v>
+        <v>369.1689</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5372</v>
+        <v>0.5851</v>
       </c>
       <c r="B14" s="0">
-        <v>786.193</v>
+        <v>366.8901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.4851</v>
+        <v>0.533</v>
       </c>
       <c r="B15" s="0">
-        <v>785.0536</v>
+        <v>369.1689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4319</v>
+        <v>0.4819</v>
       </c>
       <c r="B16" s="0">
-        <v>780.496</v>
+        <v>366.8901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3819</v>
+        <v>0.4309</v>
       </c>
       <c r="B17" s="0">
-        <v>778.2172</v>
+        <v>364.6113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3585</v>
+        <v>0.3798</v>
       </c>
       <c r="B18" s="0">
-        <v>775.9383</v>
+        <v>364.6113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.334</v>
+        <v>0.3287</v>
       </c>
       <c r="B19" s="0">
-        <v>774.7989</v>
+        <v>364.6113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3181</v>
+        <v>0.2809</v>
       </c>
       <c r="B20" s="0">
-        <v>773.6595</v>
+        <v>363.4718</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2809</v>
+        <v>0.2394</v>
       </c>
       <c r="B21" s="0">
-        <v>769.1019</v>
+        <v>361.193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2574</v>
+        <v>0.2255</v>
       </c>
       <c r="B22" s="0">
-        <v>766.8231</v>
+        <v>361.193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2298</v>
+        <v>0.1851</v>
       </c>
       <c r="B23" s="0">
-        <v>759.9866</v>
+        <v>357.7748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1904</v>
+        <v>0.1745</v>
       </c>
       <c r="B24" s="0">
-        <v>748.5925</v>
+        <v>357.7748</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1734</v>
+        <v>0.1372</v>
       </c>
       <c r="B25" s="0">
-        <v>741.756</v>
+        <v>354.3566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1255</v>
+        <v>0.1245</v>
       </c>
       <c r="B26" s="0">
-        <v>712.1314</v>
+        <v>355.496</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0723</v>
+        <v>0.0702</v>
       </c>
       <c r="B27" s="0">
-        <v>646.0456</v>
+        <v>346.3807</v>
       </c>
     </row>
     <row r="28">
@@ -7223,15 +9335,15 @@
         <v>0.0191</v>
       </c>
       <c r="B28" s="0">
-        <v>522.9893</v>
+        <v>322.4531</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0117</v>
+        <v>0.0106</v>
       </c>
       <c r="B29" s="0">
-        <v>478.5523</v>
+        <v>306.5013</v>
       </c>
     </row>
     <row r="30"/>
@@ -7241,7 +9353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -7251,7 +9363,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -7487,282 +9599,6 @@
       </c>
     </row>
     <row r="31"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9886</v>
-      </c>
-      <c r="B3" s="0">
-        <v>149.7907</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.944</v>
-      </c>
-      <c r="B4" s="0">
-        <v>140.3591</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.891</v>
-      </c>
-      <c r="B5" s="0">
-        <v>139.1096</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8795</v>
-      </c>
-      <c r="B6" s="0">
-        <v>139.9234</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.8418</v>
-      </c>
-      <c r="B7" s="0">
-        <v>137.8616</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.8092</v>
-      </c>
-      <c r="B8" s="0">
-        <v>138.2575</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.7594</v>
-      </c>
-      <c r="B9" s="0">
-        <v>137.4186</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.7411</v>
-      </c>
-      <c r="B10" s="0">
-        <v>138.6389</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.7065</v>
-      </c>
-      <c r="B11" s="0">
-        <v>137.8062</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.674</v>
-      </c>
-      <c r="B12" s="0">
-        <v>138.2022</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.6572</v>
-      </c>
-      <c r="B13" s="0">
-        <v>137.3767</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.6199</v>
-      </c>
-      <c r="B14" s="0">
-        <v>138.9986</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.6037</v>
-      </c>
-      <c r="B15" s="0">
-        <v>137.7641</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.5691</v>
-      </c>
-      <c r="B16" s="0">
-        <v>139.7963</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.5533</v>
-      </c>
-      <c r="B17" s="0">
-        <v>137.7435</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5166</v>
-      </c>
-      <c r="B18" s="0">
-        <v>139.3656</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5025</v>
-      </c>
-      <c r="B19" s="0">
-        <v>137.3134</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4653</v>
-      </c>
-      <c r="B20" s="0">
-        <v>140.1631</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4312</v>
-      </c>
-      <c r="B21" s="0">
-        <v>139.3306</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4133</v>
-      </c>
-      <c r="B22" s="0">
-        <v>140.1419</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.3787</v>
-      </c>
-      <c r="B23" s="0">
-        <v>138.4906</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.363</v>
-      </c>
-      <c r="B24" s="0">
-        <v>139.712</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.3294</v>
-      </c>
-      <c r="B25" s="0">
-        <v>137.6519</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.3111</v>
-      </c>
-      <c r="B26" s="0">
-        <v>140.5093</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.2791</v>
-      </c>
-      <c r="B27" s="0">
-        <v>138.4498</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.2282</v>
-      </c>
-      <c r="B28" s="0">
-        <v>138.0197</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B29" s="0">
-        <v>137.1814</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.1317</v>
-      </c>
-      <c r="B30" s="0">
-        <v>135.9339</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0746</v>
-      </c>
-      <c r="B31" s="0">
-        <v>133.8641</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B32" s="0">
-        <v>129.3397</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0111</v>
-      </c>
-      <c r="B33" s="0">
-        <v>124.4247</v>
-      </c>
-    </row>
-    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7792,218 +9628,218 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9841</v>
+        <v>0.9915</v>
       </c>
       <c r="B3" s="0">
-        <v>373.6633</v>
+        <v>802.1448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9405</v>
+        <v>0.9468</v>
       </c>
       <c r="B4" s="0">
-        <v>372.827</v>
+        <v>795.3083</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.928</v>
+        <v>0.8968</v>
       </c>
       <c r="B5" s="0">
-        <v>372.8218</v>
+        <v>794.1689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.8897</v>
+        <v>0.884</v>
       </c>
       <c r="B6" s="0">
-        <v>372.3969</v>
+        <v>793.0295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8745</v>
+        <v>0.8447</v>
       </c>
       <c r="B7" s="0">
-        <v>372.7999</v>
+        <v>791.8901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8393</v>
+        <v>0.833</v>
       </c>
       <c r="B8" s="0">
-        <v>371.967</v>
+        <v>791.8901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8226</v>
+        <v>0.7957</v>
       </c>
       <c r="B9" s="0">
-        <v>372.7787</v>
+        <v>793.0295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7885</v>
+        <v>0.7447</v>
       </c>
       <c r="B10" s="0">
-        <v>372.3554</v>
+        <v>790.7507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7387</v>
+        <v>0.6926</v>
       </c>
       <c r="B11" s="0">
-        <v>371.5165</v>
+        <v>790.7507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6883</v>
+        <v>0.6394</v>
       </c>
       <c r="B12" s="0">
-        <v>371.4959</v>
+        <v>788.4718</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6354</v>
+        <v>0.5883</v>
       </c>
       <c r="B13" s="0">
-        <v>370.2464</v>
+        <v>787.3324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5855</v>
+        <v>0.5372</v>
       </c>
       <c r="B14" s="0">
-        <v>370.6353</v>
+        <v>786.193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5341</v>
+        <v>0.4851</v>
       </c>
       <c r="B15" s="0">
-        <v>368.9771</v>
+        <v>785.0536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4817</v>
+        <v>0.4319</v>
       </c>
       <c r="B16" s="0">
-        <v>368.1371</v>
+        <v>780.496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4314</v>
+        <v>0.3819</v>
       </c>
       <c r="B17" s="0">
-        <v>367.7072</v>
+        <v>778.2172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3794</v>
+        <v>0.3585</v>
       </c>
       <c r="B18" s="0">
-        <v>366.4582</v>
+        <v>775.9383</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3307</v>
+        <v>0.334</v>
       </c>
       <c r="B19" s="0">
-        <v>365.6197</v>
+        <v>774.7989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2803</v>
+        <v>0.3181</v>
       </c>
       <c r="B20" s="0">
-        <v>363.9619</v>
+        <v>773.6595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.24</v>
+        <v>0.2809</v>
       </c>
       <c r="B21" s="0">
-        <v>361.4898</v>
+        <v>769.1019</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2263</v>
+        <v>0.2574</v>
       </c>
       <c r="B22" s="0">
-        <v>361.8934</v>
+        <v>766.8231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1854</v>
+        <v>0.2298</v>
       </c>
       <c r="B23" s="0">
-        <v>357.7839</v>
+        <v>759.9866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1744</v>
+        <v>0.1904</v>
       </c>
       <c r="B24" s="0">
-        <v>359.4165</v>
+        <v>748.5925</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1387</v>
+        <v>0.1734</v>
       </c>
       <c r="B25" s="0">
-        <v>354.4906</v>
+        <v>741.756</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1256</v>
+        <v>0.1255</v>
       </c>
       <c r="B26" s="0">
-        <v>355.3038</v>
+        <v>712.1314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0711</v>
+        <v>0.0723</v>
       </c>
       <c r="B27" s="0">
-        <v>345.8681</v>
+        <v>646.0456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0218</v>
+        <v>0.0191</v>
       </c>
       <c r="B28" s="0">
-        <v>325.7934</v>
+        <v>522.9893</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0108</v>
+        <v>0.0117</v>
       </c>
       <c r="B29" s="0">
-        <v>309.0085</v>
+        <v>478.5523</v>
       </c>
     </row>
     <row r="30"/>
@@ -8015,6 +9851,526 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9886</v>
+      </c>
+      <c r="B3" s="0">
+        <v>149.7907</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.944</v>
+      </c>
+      <c r="B4" s="0">
+        <v>140.3591</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.891</v>
+      </c>
+      <c r="B5" s="0">
+        <v>139.1096</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8795</v>
+      </c>
+      <c r="B6" s="0">
+        <v>139.9234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8418</v>
+      </c>
+      <c r="B7" s="0">
+        <v>137.8616</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8092</v>
+      </c>
+      <c r="B8" s="0">
+        <v>138.2575</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7594</v>
+      </c>
+      <c r="B9" s="0">
+        <v>137.4186</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7411</v>
+      </c>
+      <c r="B10" s="0">
+        <v>138.6389</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7065</v>
+      </c>
+      <c r="B11" s="0">
+        <v>137.8062</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.674</v>
+      </c>
+      <c r="B12" s="0">
+        <v>138.2022</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6572</v>
+      </c>
+      <c r="B13" s="0">
+        <v>137.3767</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6199</v>
+      </c>
+      <c r="B14" s="0">
+        <v>138.9986</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6037</v>
+      </c>
+      <c r="B15" s="0">
+        <v>137.7641</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5691</v>
+      </c>
+      <c r="B16" s="0">
+        <v>139.7963</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5533</v>
+      </c>
+      <c r="B17" s="0">
+        <v>137.7435</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5166</v>
+      </c>
+      <c r="B18" s="0">
+        <v>139.3656</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5025</v>
+      </c>
+      <c r="B19" s="0">
+        <v>137.3134</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.4653</v>
+      </c>
+      <c r="B20" s="0">
+        <v>140.1631</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4312</v>
+      </c>
+      <c r="B21" s="0">
+        <v>139.3306</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4133</v>
+      </c>
+      <c r="B22" s="0">
+        <v>140.1419</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3787</v>
+      </c>
+      <c r="B23" s="0">
+        <v>138.4906</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.363</v>
+      </c>
+      <c r="B24" s="0">
+        <v>139.712</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3294</v>
+      </c>
+      <c r="B25" s="0">
+        <v>137.6519</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3111</v>
+      </c>
+      <c r="B26" s="0">
+        <v>140.5093</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2791</v>
+      </c>
+      <c r="B27" s="0">
+        <v>138.4498</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.2282</v>
+      </c>
+      <c r="B28" s="0">
+        <v>138.0197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B29" s="0">
+        <v>137.1814</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1317</v>
+      </c>
+      <c r="B30" s="0">
+        <v>135.9339</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0746</v>
+      </c>
+      <c r="B31" s="0">
+        <v>133.8641</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B32" s="0">
+        <v>129.3397</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0111</v>
+      </c>
+      <c r="B33" s="0">
+        <v>124.4247</v>
+      </c>
+    </row>
+    <row r="34"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9841</v>
+      </c>
+      <c r="B3" s="0">
+        <v>373.6633</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9405</v>
+      </c>
+      <c r="B4" s="0">
+        <v>372.827</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.928</v>
+      </c>
+      <c r="B5" s="0">
+        <v>372.8218</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8897</v>
+      </c>
+      <c r="B6" s="0">
+        <v>372.3969</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8745</v>
+      </c>
+      <c r="B7" s="0">
+        <v>372.7999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8393</v>
+      </c>
+      <c r="B8" s="0">
+        <v>371.967</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8226</v>
+      </c>
+      <c r="B9" s="0">
+        <v>372.7787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7885</v>
+      </c>
+      <c r="B10" s="0">
+        <v>372.3554</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7387</v>
+      </c>
+      <c r="B11" s="0">
+        <v>371.5165</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6883</v>
+      </c>
+      <c r="B12" s="0">
+        <v>371.4959</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6354</v>
+      </c>
+      <c r="B13" s="0">
+        <v>370.2464</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.5855</v>
+      </c>
+      <c r="B14" s="0">
+        <v>370.6353</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.5341</v>
+      </c>
+      <c r="B15" s="0">
+        <v>368.9771</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4817</v>
+      </c>
+      <c r="B16" s="0">
+        <v>368.1371</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4314</v>
+      </c>
+      <c r="B17" s="0">
+        <v>367.7072</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3794</v>
+      </c>
+      <c r="B18" s="0">
+        <v>366.4582</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3307</v>
+      </c>
+      <c r="B19" s="0">
+        <v>365.6197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2803</v>
+      </c>
+      <c r="B20" s="0">
+        <v>363.9619</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B21" s="0">
+        <v>361.4898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2263</v>
+      </c>
+      <c r="B22" s="0">
+        <v>361.8934</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.1854</v>
+      </c>
+      <c r="B23" s="0">
+        <v>357.7839</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.1744</v>
+      </c>
+      <c r="B24" s="0">
+        <v>359.4165</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.1387</v>
+      </c>
+      <c r="B25" s="0">
+        <v>354.4906</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.1256</v>
+      </c>
+      <c r="B26" s="0">
+        <v>355.3038</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.0711</v>
+      </c>
+      <c r="B27" s="0">
+        <v>345.8681</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.0218</v>
+      </c>
+      <c r="B28" s="0">
+        <v>325.7934</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.0108</v>
+      </c>
+      <c r="B29" s="0">
+        <v>309.0085</v>
+      </c>
+    </row>
+    <row r="30"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8023,7 +10379,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -8305,7 +10661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -8315,7 +10671,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
